--- a/data/financial_statements/sofp/GS.xlsx
+++ b/data/financial_statements/sofp/GS.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -476,2122 +590,2164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>656000000000.0001</v>
+      </c>
+      <c r="C2">
         <v>663721000000.0001</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>736290000000.0001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>727580000000.0001</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>645510000000.0001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>611563000000.0001</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>590666000000.0001</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>515484000000.0001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>406062000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>381869000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>406225000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>359492000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>355308000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>372762000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>367189000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>368279000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>405090000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>417209000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>429422000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>429531000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>421721000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>417536000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>404742000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>427759000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>423236000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>433749000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>465703000000.0001</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>446572000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>405385000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>423961000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>397782000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>385350000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>397976000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>396381000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>371473000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>444806000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>437102000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>464316000000.0001</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>452681000000.0001</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>434924000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>437000000000</v>
+      </c>
+      <c r="C3">
         <v>165421000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>163251000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>174637000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>160673000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>171780000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>162094000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>164658000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>121331000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>111181000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>106489000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>120927000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>74605000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>83092000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>83915000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>73438000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>72455000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>83315000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>88637000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>108019000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>84788000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>88143000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>91634000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>80210000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>65824000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>79536000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>78441000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>72370000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>71883000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>99002000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>94685000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>98302000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>94479000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>125006000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>119244000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>114874000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>97880000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>97720000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>97357000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>98418000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>1272000000000</v>
+      </c>
+      <c r="C4">
         <v>1005811000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1075479000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1067732000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>964745000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>926967000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>883297000000.0001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>801403000000.0001</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>643508000000.0001</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>604893000000.0001</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>629808000000.0001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>608872000000.0001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>538817000000.0001</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>541691000000.0001</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>534873000000.0001</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>524391000000.0001</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>575382000000.0001</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>576535000000.0001</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>592141000000.0001</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>609247000000.0001</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>572442000000.0001</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>567165000000.0001</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>550328000000.0001</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>558354000000.0001</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>538732000000.0001</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>562349000000.0001</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>592356000000.0001</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>566866000000.0001</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>522675000000.0001</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>565152000000.0001</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>530864000000.0001</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>516271000000.0001</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>521393000000.0001</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>521387000000.0001</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>490717000000.0001</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>559680000000.0001</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>549877000000.0001</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>562036000000.0001</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>550038000000.0001</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>533342000000.0001</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>19092000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>20544000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>20444000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>20192000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>20241000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>22921000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>24485000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>25109000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>25437000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>25646000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>25420000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>131000000000</v>
+      </c>
+      <c r="C6">
         <v>510938000000.0001</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>486671000000.0001</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>484537000000.0001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>464635000000.0001</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>479706000000.0001</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>466644000000.0001</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>462234000000.0001</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>482075000000.0001</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>489192000000.0001</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>473956000000.0001</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>444165000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>419269000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>424989000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>370942000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>363275000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>327419000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>351028000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>347959000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>336879000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>315988000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>333474000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>327740000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>308871000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>295952000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>292420000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>279992000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>286902000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>313502000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>290487000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>303463000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>325938000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>312248000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>325326000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>345806000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>332533000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>339121000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>324257000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>356161000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>387393000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
         <v>8251000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8210000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6481000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4703000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4823000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>4855000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>4907000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>4962000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4965000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4792000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4810000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>178332000000</v>
+        <v>39000000000</v>
       </c>
       <c r="C8">
-        <v>167928000000</v>
+        <v>39245000000</v>
       </c>
       <c r="D8">
-        <v>179618000000</v>
+        <v>39074000000</v>
       </c>
       <c r="E8">
-        <v>173317000000</v>
+        <v>37172000000</v>
       </c>
       <c r="F8">
-        <v>178561000000</v>
+        <v>34608000000</v>
       </c>
       <c r="G8">
+        <v>36557000000</v>
+      </c>
+      <c r="H8">
         <v>37981000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>37911000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>37445000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>37974000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>37759000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>36719000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>34882000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>40640000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>39088000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>37683000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>28995000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>29627000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>28510000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>27409000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>28346000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>29493000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>28450000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>26844000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>25481000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>25218000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>24495000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>24268000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>25218000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>24920000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>25552000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>23249000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>22201000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>22220000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>23391000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>23452000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>22509000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>36930000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>32257000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>38488000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>170000000000</v>
+      </c>
+      <c r="C9">
         <v>550183000000.0001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>525745000000.0001</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>521709000000.0001</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>499243000000.0001</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>516263000000.0001</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>504625000000.0001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>500145000000.0001</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>519520000000.0001</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>527166000000.0001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>511715000000.0001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>480884000000.0001</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>454151000000.0001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>465629000000.0001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>410030000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>400958000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>356414000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>380655000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>376469000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>364288000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>344334000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>362967000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>356190000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>335715000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>321433000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>317638000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>304487000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>311170000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>338720000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>315407000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>329015000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>349187000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>334449000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>347546000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>369197000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>355985000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>361630000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>361187000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>388418000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>425881000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>1442000000000</v>
+      </c>
+      <c r="C10">
         <v>1555994000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>1601224000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1589441000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1463988000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1443230000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1387922000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>1301548000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>1163028000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1132059000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>1141523000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1089756000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>992968000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>1007320000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>944903000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>925349000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>931796000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>957190000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>968610000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>973535000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>916776000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>930132000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>906518000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>894069000000.0001</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>860165000000.0001</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>879987000000.0001</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>896843000000.0001</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>878036000000.0001</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>861395000000.0001</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>880559000000.0001</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>859879000000.0001</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>865458000000.0001</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>855842000000.0001</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>868933000000.0001</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>859914000000.0001</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>915665000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>911507000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>923223000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>938456000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>959223000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>61000000000</v>
+      </c>
+      <c r="C11">
         <v>51850000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>57615000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>58076000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>46955000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>48990000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>61740000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>58463000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>52870000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>48028000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>44264000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>37148000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>48287000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>51958000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>49643000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>45432000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>40502000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>41735000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>44390000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>47760000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>46922000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>45357000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>42966000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>35872000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>39265000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>42825000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>42854000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>46691000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>42787000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>41331000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>46378000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>44367000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>44539000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>48282000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>45755000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>46391000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>44692000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>39238000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>41801000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>40980000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>453000000000.0001</v>
+      </c>
+      <c r="C12">
         <v>278457000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>279984000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>292981000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>251931000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>252120000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>238697000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>224268000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>190658000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>187357000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>199211000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>213178000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>174817000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>188161000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>185279000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>180997000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>180235000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>189968000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>192617000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>190991000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>178169000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>202986000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>199562000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>196258000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>188455000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>204487000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>217936000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>210938000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>210362000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>222778000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>206112000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>223287000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>213572000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>219347000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>211516000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>228414000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>204765000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>201873000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>209272000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>203527000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13">
         <v>270964000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>303340000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>309188000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>315525000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>277115000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>285170000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>263966000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>214622000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>178393000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>161569000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>171224000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>564000000000.0001</v>
+      </c>
+      <c r="C14">
         <v>866432000000.0001</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>895310000000.0001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>864753000000.0001</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>801084000000.0001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>793043000000.0001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>746665000000.0001</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>702109000000.0001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>610087000000.0001</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>590088000000.0001</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>585392000000.0001</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>521575000000.0001</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>472523000000.0001</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>458311000000.0001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>397944000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>384174000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>396725000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>409338000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>417650000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>425306000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>391755000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>383645000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>373668000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>375652000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>356466000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>354979000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>365807000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>353411000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>346096000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>352930000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>349476000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>348995000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>347632000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>353725000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>353995000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>396134000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>422618000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>436414000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>447298000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>470480000000.0001</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>1078000000000</v>
+      </c>
+      <c r="C15">
         <v>1196739000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1232909000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1215810000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>1099970000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1094153000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1047102000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>984840000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>853615000000.0001</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>825473000000.0001</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>828867000000.0001</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>771901000000.0001</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>695627000000.0001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>698430000000.0001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>632866000000.0001</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>610603000000.0001</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>617462000000.0001</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>641041000000.0001</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>654657000000.0001</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>664057000000.0001</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>616846000000.0001</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>631988000000.0001</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>616196000000.0001</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>607782000000.0001</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>584186000000.0001</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>602291000000.0001</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>626597000000.0001</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>611040000000.0001</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>599245000000.0001</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>617039000000.0001</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>601966000000.0001</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>616649000000.0001</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>605743000000.0001</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>621354000000.0001</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>611266000000.0001</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>670939000000.0001</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>672075000000.0001</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>677525000000.0001</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>698371000000.0001</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>714987000000.0001</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>234096000000</v>
+        <v>247000000000</v>
       </c>
       <c r="C16">
-        <v>235198000000</v>
+        <v>239965000000</v>
       </c>
       <c r="D16">
-        <v>236407000000</v>
+        <v>250444000000</v>
       </c>
       <c r="E16">
-        <v>218742000000</v>
+        <v>258392000000</v>
       </c>
       <c r="F16">
-        <v>245496000000</v>
+        <v>254092000000</v>
       </c>
       <c r="G16">
+        <v>242780000000</v>
+      </c>
+      <c r="H16">
         <v>238930000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>219044000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>213481000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>213936000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>222627000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>225476000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>207076000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>216878000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>221145000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>224473000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>224149000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>229387000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>227354000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>225899000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>217687000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>211852000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>203647000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>199370000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>189086000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>190586000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>183732000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>180159000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>175422000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>175817000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>170259000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>163682000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>167302000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>165304000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>167019000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>165627000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>160965000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>168082000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>162042000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>167008000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>536911000000.0001</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>552645000000.0001</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>540896000000.0001</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>454728000000.0001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>479686000000.0001</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>457816000000.0001</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>443687000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>362913000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>368727000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>381977000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>364419000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
+        <v>247000000000</v>
+      </c>
+      <c r="C18">
         <v>239965000000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>250444000000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>258392000000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>254092000000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>242780000000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>238930000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>219044000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>213481000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>213936000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>222627000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>225476000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>207076000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>216878000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>221145000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>224473000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>224149000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>229387000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>227354000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>225899000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>217687000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>211852000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>203647000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>199370000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>189086000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>190586000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>183732000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>180159000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>175422000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>175817000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>170259000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>163682000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>167302000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>165304000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>167019000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>165627000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>160965000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>168082000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>162042000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>167008000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>1325000000000</v>
+      </c>
+      <c r="C19">
         <v>1436704000000</v>
       </c>
-      <c r="C19">
-        <v>1482509000000</v>
-      </c>
       <c r="D19">
-        <v>1473299000000</v>
+        <v>1483353000000</v>
       </c>
       <c r="E19">
-        <v>1353222000000</v>
+        <v>1474202000000</v>
       </c>
       <c r="F19">
-        <v>1335335000000</v>
+        <v>1354062000000</v>
       </c>
       <c r="G19">
+        <v>1336933000000</v>
+      </c>
+      <c r="H19">
         <v>1286032000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>1203884000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1067096000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1039409000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>1051494000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>997377000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>902703000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>915308000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>854011000000.0001</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>835076000000.0001</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>841611000000.0001</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>870428000000.0001</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>882011000000.0001</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>889956000000.0001</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>834533000000.0001</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>843840000000.0001</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>819843000000.0001</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>807152000000.0001</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>773272000000.0001</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>792877000000.0001</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>810329000000.0001</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>791199000000.0001</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>774667000000.0001</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>792856000000.0001</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>772225000000.0001</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>780331000000.0001</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>773045000000.0001</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>786658000000.0001</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>778285000000.0001</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>836566000000.0001</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>833040000000.0001</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>845607000000.0001</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>860413000000.0001</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>881995000000.0001</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20">
         <v>59031000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>58993000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>58938000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>56396000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>56398000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>56390000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>56340000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>55679000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>55662000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>55637000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>55621000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>54883000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>54879000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>54865000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>54862000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>54005000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>54012000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>54000000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>53992000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>53357000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>53294000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>53187000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>53185000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>52638000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>52541000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>52480000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>52471000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>51340000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>51281000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>51210000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>51008000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>50049000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>50016000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>49942000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>49959000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>48998000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>48930000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>48762000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>48732000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>10703000000</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C21">
         <v>10703000000</v>
@@ -2603,16 +2759,16 @@
         <v>10703000000</v>
       </c>
       <c r="F21">
+        <v>10703000000</v>
+      </c>
+      <c r="G21">
         <v>9953000000</v>
-      </c>
-      <c r="G21">
-        <v>9203000000</v>
       </c>
       <c r="H21">
         <v>9203000000</v>
       </c>
       <c r="I21">
-        <v>11203000000</v>
+        <v>9203000000</v>
       </c>
       <c r="J21">
         <v>11203000000</v>
@@ -2648,10 +2804,10 @@
         <v>11203000000</v>
       </c>
       <c r="U21">
+        <v>11203000000</v>
+      </c>
+      <c r="V21">
         <v>11853000000</v>
-      </c>
-      <c r="V21">
-        <v>11203000000</v>
       </c>
       <c r="W21">
         <v>11203000000</v>
@@ -2672,7 +2828,7 @@
         <v>11203000000</v>
       </c>
       <c r="AC21">
-        <v>11200000000</v>
+        <v>11203000000</v>
       </c>
       <c r="AD21">
         <v>11200000000</v>
@@ -2681,7 +2837,7 @@
         <v>11200000000</v>
       </c>
       <c r="AF21">
-        <v>9200000000</v>
+        <v>11200000000</v>
       </c>
       <c r="AG21">
         <v>9200000000</v>
@@ -2693,7 +2849,7 @@
         <v>9200000000</v>
       </c>
       <c r="AJ21">
-        <v>7200000000</v>
+        <v>9200000000</v>
       </c>
       <c r="AK21">
         <v>7200000000</v>
@@ -2705,15 +2861,15 @@
         <v>7200000000</v>
       </c>
       <c r="AN21">
+        <v>7200000000</v>
+      </c>
+      <c r="AO21">
         <v>6200000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>9000000</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C22">
         <v>9000000</v>
@@ -2812,7 +2968,7 @@
         <v>9000000</v>
       </c>
       <c r="AI22">
-        <v>8000000</v>
+        <v>9000000</v>
       </c>
       <c r="AJ22">
         <v>8000000</v>
@@ -2829,867 +2985,873 @@
       <c r="AN22">
         <v>8000000</v>
       </c>
+      <c r="AO22">
+        <v>8000000</v>
+      </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23">
         <v>139067000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>136998000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>134931000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>131811000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>128631000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>124051000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>119210000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>112947000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>109033000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>106248000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>106501000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>106465000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>105194000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>103867000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>101988000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>100100000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>98083000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>95941000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>93907000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>91519000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>93958000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>92225000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>90904000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>89039000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>87160000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>85339000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>83990000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>83386000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>83105000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>82072000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>81455000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>78984000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>77227000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>75340000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>73646000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>71961000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>69975000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>68783000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>67164000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>93127000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>92123000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>91623000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>91136000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>90634000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>89633000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>88632000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>85940000000</v>
-      </c>
-      <c r="J24">
-        <v>85930000000</v>
       </c>
       <c r="K24">
         <v>85930000000</v>
       </c>
       <c r="L24">
+        <v>85930000000</v>
+      </c>
+      <c r="M24">
         <v>85929000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>84006000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>81841000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>81167000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>79915000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>78670000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>77422000000</v>
-      </c>
-      <c r="S24">
-        <v>76177000000</v>
       </c>
       <c r="T24">
         <v>76177000000</v>
       </c>
       <c r="U24">
+        <v>76177000000</v>
+      </c>
+      <c r="V24">
         <v>75392000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>73811000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>71642000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>70169000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>68694000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>67195000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>65921000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>64178000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>62640000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>60992000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>59940000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>59698000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>58468000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>57221000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>55975000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>54726000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>53015000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>51598000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>49949000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>48347000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25">
         <v>5479000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5245000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>4965000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4211000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3896000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>3759000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>3608000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>3468000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>3308000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3203000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>3037000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>3195000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>3052000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2930000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2739000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2845000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2716000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2581000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2415000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2777000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>3355000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>3308000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>3155000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>3914000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>3974000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>3955000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>3820000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>4151000000</v>
-      </c>
-      <c r="AD25">
-        <v>4011000000</v>
       </c>
       <c r="AE25">
         <v>4011000000</v>
       </c>
       <c r="AF25">
+        <v>4011000000</v>
+      </c>
+      <c r="AG25">
         <v>3924000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>3766000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>3687000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>3709000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3572000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>3839000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>3701000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>3822000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3679000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
         <v>108587000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>107168000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>104536000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>99223000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>96344000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>92687000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>88461000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>84729000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>81447000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>78826000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>81176000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>79062000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>80809000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>79689000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>79070000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>78982000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>75559000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>75396000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>72376000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>70390000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>75089000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>75472000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>75714000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>75690000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>75907000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>75311000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>75634000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>75528000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>76503000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>76454000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>75927000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>73597000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>73075000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>72429000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>71899000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>71267000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>70416000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>70843000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>71028000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>117000000000</v>
+      </c>
+      <c r="C27">
         <v>119290000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>117871000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>115239000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>109926000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>106297000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>101890000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>97664000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>95932000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>92650000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>90029000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>92379000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>90265000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>92012000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>90892000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>90273000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>90185000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>86762000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>86599000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>83579000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>82243000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>86292000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>86675000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>86917000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>86893000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>87110000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>86514000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>86837000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>86728000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>87703000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>87654000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>85127000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>82797000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>82275000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>81629000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>79099000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>78467000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>77616000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>78043000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>77228000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1442000000000</v>
+      </c>
+      <c r="C28">
         <v>1555994000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1601224000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1589441000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1463988000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1443230000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>1387922000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>1301548000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1163028000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1132059000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1141523000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>1089756000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>992968000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>1007320000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>944903000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>925349000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>931796000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>957190000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>968610000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>973535000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>916776000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>930132000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>906518000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>894069000000.0001</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>860165000000.0001</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>879987000000.0001</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>896843000000.0001</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>878036000000.0001</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>861395000000.0001</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>880559000000.0001</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>859879000000.0001</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>865458000000.0001</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>855842000000.0001</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>868933000000.0001</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>859914000000.0001</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>915665000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>911507000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>923223000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>938456000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>959223000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29">
         <v>339103000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>341963000</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>343396000</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>333573000</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>334793000</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>337276000</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>340018000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>344089000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>344071000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>343935000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>343857000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>347343000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>357509000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>360540000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>366772000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>367742000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>372739000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>377879000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>377706000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>374809000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>379099000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>388213000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>394792000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>392632000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>399212000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>406592000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>417572000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>419481000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>427904000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>432768000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>432093000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>430259000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>435734000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>440735000</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>448032000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>446359000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>441499000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>450481000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>460782000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>400000</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C30">
         <v>400000</v>
@@ -3698,19 +3860,19 @@
         <v>400000</v>
       </c>
       <c r="E30">
+        <v>400000</v>
+      </c>
+      <c r="F30">
         <v>420000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>370000</v>
-      </c>
-      <c r="G30">
-        <v>340000</v>
       </c>
       <c r="H30">
         <v>340000</v>
       </c>
       <c r="I30">
-        <v>420000</v>
+        <v>340000</v>
       </c>
       <c r="J30">
         <v>420000</v>
@@ -3745,7 +3907,7 @@
       <c r="T30">
         <v>420000</v>
       </c>
-      <c r="V30">
+      <c r="U30">
         <v>420000</v>
       </c>
       <c r="W30">
@@ -3754,403 +3916,415 @@
       <c r="X30">
         <v>420000</v>
       </c>
-      <c r="Z30">
+      <c r="Y30">
         <v>420000</v>
       </c>
-      <c r="AB30">
+      <c r="AA30">
+        <v>420000</v>
+      </c>
+      <c r="AC30">
         <v>400000</v>
-      </c>
-      <c r="AD30">
-        <v>380000</v>
       </c>
       <c r="AE30">
         <v>380000</v>
       </c>
       <c r="AF30">
-        <v>300000</v>
-      </c>
-      <c r="AH30">
+        <v>380000</v>
+      </c>
+      <c r="AG30">
         <v>300000</v>
       </c>
       <c r="AI30">
         <v>300000</v>
       </c>
       <c r="AJ30">
-        <v>220000</v>
-      </c>
-      <c r="AL30">
+        <v>300000</v>
+      </c>
+      <c r="AK30">
         <v>220000</v>
       </c>
       <c r="AM30">
         <v>220000</v>
       </c>
       <c r="AN30">
+        <v>220000</v>
+      </c>
+      <c r="AO30">
         <v>180000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>117000000000</v>
+      </c>
+      <c r="C31">
         <v>119290000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>117871000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>115239000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>109926000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>106297000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>101890000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>97664000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>95932000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>92650000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>90029000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>92379000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>90265000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>92012000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>90892000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>90273000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>90185000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>86762000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>86599000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>83579000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>82243000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>86292000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>86675000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>86917000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>86893000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>87110000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>86514000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>86837000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>86728000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>87703000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>87654000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>85127000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>82797000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>82275000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>81629000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>79099000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>78467000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>77616000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>78043000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>77228000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>-158661000000.0001</v>
+        <v>-409000000000.0002</v>
       </c>
       <c r="C32">
-        <v>-197752000000.0001</v>
+        <v>-152792000000.0001</v>
       </c>
       <c r="D32">
-        <v>-181985000000.0001</v>
+        <v>-182506000000.0001</v>
       </c>
       <c r="E32">
-        <v>-111243000000.0001</v>
+        <v>-160000000000.0001</v>
       </c>
       <c r="F32">
-        <v>-88952000000.00011</v>
+        <v>-75893000000.00011</v>
       </c>
       <c r="G32">
+        <v>-91668000000.00011</v>
+      </c>
+      <c r="H32">
         <v>-66566000000.0001</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>-32474000000.0001</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>22041000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>10460000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>-22029000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>37208000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>-148232000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>-155884000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>-146044000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>-143806000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>-180941000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>-187822000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>-202068000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>-203632000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>-204034000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>-205684000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>-201095000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>-228389000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>-234150000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>-243163000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>-281971000000.0002</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>-266413000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>-229963000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>-248144000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>-227523000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>-221668000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>-230674000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>-231077000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>-204454000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>-279179000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>-276137000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>-296234000000.0002</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>-290639000000.0002</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>-267916000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
-        <v>505060000000.0001</v>
+        <v>247000000000</v>
       </c>
       <c r="C33">
-        <v>538538000000.0001</v>
+        <v>510929000000.0001</v>
       </c>
       <c r="D33">
-        <v>545595000000.0001</v>
+        <v>553784000000.0001</v>
       </c>
       <c r="E33">
-        <v>534267000000.0001</v>
+        <v>567580000000.0001</v>
       </c>
       <c r="F33">
-        <v>522611000000.0001</v>
+        <v>569617000000.0001</v>
       </c>
       <c r="G33">
+        <v>519895000000.0001</v>
+      </c>
+      <c r="H33">
         <v>524100000000.0001</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>483010000000.0001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>428103000000</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>392329000000</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>384196000000</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>396700000000</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>207076000000</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>216878000000</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>221145000000</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>224473000000</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>224149000000</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>229387000000</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>227354000000</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>225899000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>217687000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>211852000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>203647000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>199370000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>189086000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>190586000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>183732000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>180159000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>175422000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>175817000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>170259000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>163682000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>167302000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>165304000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>167019000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>165627000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>160965000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>168082000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>162042000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>167008000000</v>
       </c>
     </row>
